--- a/evaluation/opposite_evaluation/opposite_experiment.xlsx
+++ b/evaluation/opposite_evaluation/opposite_experiment.xlsx
@@ -1,29 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jupyter\stance_code_local\evaluation\opposite_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3BEBD1-DCE4-4D7C-B637-186E1EBF2774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678262DB-2BF0-418F-8E6E-FDFD204D64FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25840" windowHeight="14027" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$100</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="247">
   <si>
     <t>claims</t>
   </si>
@@ -34,734 +44,750 @@
     <t>opposite</t>
   </si>
   <si>
+    <t>predict_origin</t>
+  </si>
+  <si>
+    <t>gold_origin</t>
+  </si>
+  <si>
+    <t>predict_opposite</t>
+  </si>
+  <si>
+    <t>gold_opposite</t>
+  </si>
+  <si>
+    <t>oppose_sum</t>
+  </si>
+  <si>
+    <t>support_sum</t>
+  </si>
+  <si>
+    <t>final_label</t>
+  </si>
+  <si>
+    <t>School Day Should Be Extended</t>
+  </si>
+  <si>
+    <t>Not enough funding…</t>
+  </si>
+  <si>
+    <t>Enough funding…</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Raise The School Leaving Age To 18</t>
+  </si>
+  <si>
+    <t>Little is accomplished when education is forced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big is accomplished when education is forced. </t>
+  </si>
+  <si>
+    <t>Forced Education Achieves Little</t>
+  </si>
+  <si>
+    <t>Forced education achieves big</t>
+  </si>
+  <si>
+    <t>Not all skills are best learnt in a classroom environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All skills are best learnt in a classroom environment. </t>
+  </si>
+  <si>
+    <t>Some skills are better learned outside the classroom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None skills are worse learned inside the classroom. </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Young people should have the choice to decide for themselves</t>
+  </si>
+  <si>
+    <t>Young people should not have the choice to decide for themselves</t>
+  </si>
+  <si>
+    <t>Young people should have the freedom to make their own choices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young people should not have the restraint to destroy their own choices. </t>
+  </si>
+  <si>
+    <t>Young people should be able to think for themselves and make their own decisions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young people should not be unable to think for themselves and destroy their own decisions. </t>
+  </si>
+  <si>
+    <t>Not everyone is good at studying</t>
+  </si>
+  <si>
+    <t>Everyone is good at studying</t>
+  </si>
+  <si>
+    <t>Make all museums free of charge</t>
+  </si>
+  <si>
+    <t>State funding should be used elsewhere</t>
+  </si>
+  <si>
+    <t>State funding shouldn't be used elsewhere</t>
+  </si>
+  <si>
+    <t>Chess must be at the Olympics</t>
+  </si>
+  <si>
+    <t>Opening up the Olympics for borderline sports is bad in itself</t>
+  </si>
+  <si>
+    <t>Opening up the olympics for borderline sports is good in itself</t>
+  </si>
+  <si>
+    <t>Olympic sports are suppose to be physical</t>
+  </si>
+  <si>
+    <t>Olympic sports aren't supposed to be physical</t>
+  </si>
+  <si>
+    <t>‘The Spear’ should have remained on public display.</t>
+  </si>
+  <si>
+    <t>Public Decency</t>
+  </si>
+  <si>
+    <t>No public decency</t>
+  </si>
+  <si>
+    <t>Federal States are better than unitary nations</t>
+  </si>
+  <si>
+    <t>Losers abound in federal states.</t>
+  </si>
+  <si>
+    <t>Losers not abound in federal states.</t>
+  </si>
+  <si>
+    <t>Federal governments often extend their powers and usurp local authority, especially if one or more federal units are disproportionately powerful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal governments not often extend thier powers and usurp local authority, especially if two or less private units aren't disproportionately powerful. </t>
+  </si>
+  <si>
+    <t>Positive Discrimination Towards Women in Society Is Justified</t>
+  </si>
+  <si>
+    <t>Positive discrimination towards women should be allowed</t>
+  </si>
+  <si>
+    <t>Positive discrimination towards women should not be allowed</t>
+  </si>
+  <si>
+    <t>It is Men, Not Women, who are Disadvantaged in our Society</t>
+  </si>
+  <si>
+    <t>it is women, not men, who are disadvantaged in our society</t>
+  </si>
+  <si>
+    <t>Will Cause Resentment Between Men and Women</t>
+  </si>
+  <si>
+    <t>will not cause resentment among women and men</t>
+  </si>
+  <si>
+    <t>Positive discrimination for women is discrimination</t>
+  </si>
+  <si>
+    <t>Positive discrimination for women is not discrimination</t>
+  </si>
+  <si>
+    <t>Positive discrimination takes away voters' freedom of choice by limiting their choices to women</t>
+  </si>
+  <si>
+    <t>negative discrimination does not take away voters' freedom of choice by limiting their choices to women</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> College education is worth it</t>
+  </si>
+  <si>
+    <t>Many people succeed without college degrees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No one succeeds without elementary school degrees. </t>
+  </si>
+  <si>
+    <t>Many college graduates are employed in jobs that do not require college degrees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no elementary school graduates are employed in jobs that do not require elementary school degrees. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">More and more college educated people are accepting jobs for which they do not need a college education. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> less and less elementary school educated people aren't accepting jobs for which he do not have a elementary school education.  </t>
+  </si>
+  <si>
+    <t>Too many students earning degrees has diluted the value of a bachelor's degree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too less students earning degrees has not diluted the value of a bachelor's degree. </t>
+  </si>
+  <si>
+    <t>The value of a bachelor's degree has lessened.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the value of a bachelor's degree has not lessened. </t>
+  </si>
+  <si>
+    <t>A bachelor's degree is considered standard now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a bachelor's degree is not considered standard eventually. </t>
+  </si>
+  <si>
+    <t>Many recent college graduates are un- or underemployed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> none recent elementary school graduates are un- or underemployed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In recent times, there are significant numbers of unemployed and underemployed college graduates. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">in recent moments, there aren't significant numbers of unemployed and underemployed elementary school graduates.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Among those who are unemployed and underemployed, there are many college graduates. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Among these who are unemployed and underemployed, there aren't many elementary school graduates.  </t>
+  </si>
+  <si>
+    <t>Learning a trade profession is a better option than college for many young adults.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> learning a trade profession is a worse option than elementary school for many older adults. </t>
+  </si>
+  <si>
+    <t>Young adults should consider learning a trade instead of going to college.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young adults shouldn't consider learning a trade instead of going to college. </t>
+  </si>
+  <si>
+    <t>Socialism is Dead</t>
+  </si>
+  <si>
+    <t>Socialism has changed historically to meet the challenges of the moment and is addressing those of the 21st century in new ways</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> socialism has not changed historically to meet the challenges of the moment and is addressing these of the 32st century in old ways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socialism can be molded to fit the needs of the moment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">socialism can be molded to fit the wants of the moment.  </t>
+  </si>
+  <si>
+    <t>Socialism is a an ever changing set of principles that can be applied in new ways to meet the challenges of a changing world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> socialism is a never changing set of principles that can be applied out old ways to meet the challenges of a changing galaxy. </t>
+  </si>
+  <si>
+    <t>socialism have changed and adapted to meet the upcoming challenges of the 21st century</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> socialism has not changed and adapted to meet the upcoming challenges of the 32st century</t>
+  </si>
+  <si>
+    <t>Socialism outranks capitalism in security.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">socialism does not outrank communism in security. </t>
+  </si>
+  <si>
+    <t>College football should replace the bowl championship series (BCS)</t>
+  </si>
+  <si>
+    <t>The BCS rankings are designed to favor consistency over the course of the entire season.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the BCS rankings aren't designed to favor consistency over the course of the entire season. </t>
+  </si>
+  <si>
+    <t>Pensions should be privatised</t>
+  </si>
+  <si>
+    <t>Historical evidence has shown that privatisation has been unsuccessful</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> historical disproof has hidden that privatisation has not been unsuccessful</t>
+  </si>
+  <si>
+    <t>You have nothing to worry about surveillance if you have done nothing wrong</t>
+  </si>
+  <si>
+    <t>Lack of trust</t>
+  </si>
+  <si>
+    <t>lack of distrust</t>
+  </si>
+  <si>
+    <t>There is no trust</t>
+  </si>
+  <si>
+    <t>there is trust</t>
+  </si>
+  <si>
+    <t>Trust is missing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trust is not missing. </t>
+  </si>
+  <si>
+    <t>The use of meta data causes unintentional harm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the break of meta data causes unintentional harm</t>
+  </si>
+  <si>
+    <t>Abuse of information and power by intelligence agencies</t>
+  </si>
+  <si>
+    <t>No abuse of information and power by intelligence agencies</t>
+  </si>
+  <si>
+    <t>Agencies use surveillance to abuse their power.</t>
+  </si>
+  <si>
+    <t>Agencies do not use surveillance to abuse their power.</t>
+  </si>
+  <si>
+    <t>Power trips can be had by agencies.</t>
+  </si>
+  <si>
+    <t>Power trips can be good by agencies.</t>
+  </si>
+  <si>
+    <t>Loss of Privacy</t>
+  </si>
+  <si>
+    <t>keep of privacy</t>
+  </si>
+  <si>
+    <t>The use of animals as objects of sport and entertainment should be banned.</t>
+  </si>
+  <si>
+    <t>Fighting bulls have a better quality of life than meat-producing bulls</t>
+  </si>
+  <si>
+    <t>fighting bulls does not have a better quality of life than meat-producing bulls</t>
+  </si>
+  <si>
+    <t>In Parliamentary Democracies, A Change Of Prime Minister Should Automatically Trigger A General Election.</t>
+  </si>
+  <si>
+    <t>The concept overestimates the role of the Prime Minister</t>
+  </si>
+  <si>
+    <t>the concept underestimates the role of the prime minister</t>
+  </si>
+  <si>
+    <t>We must support the use of truth and reconciliation commissions</t>
+  </si>
+  <si>
+    <t>Reconciliation can be used to conceal political corruption and patrimony</t>
+  </si>
+  <si>
+    <t>reconciliation can not be used to conceal political corruption and patrimony</t>
+  </si>
+  <si>
+    <t>reconciliation can be used for political corruption</t>
+  </si>
+  <si>
+    <t>reconciliation can not be used for political corruption</t>
+  </si>
+  <si>
+    <t>reconciliation can help to conceal corruption</t>
+  </si>
+  <si>
+    <t>reconciliation can not help to conceal corruption</t>
+  </si>
+  <si>
+    <t>There is a good case for stating that there is a God</t>
+  </si>
+  <si>
+    <t>'God' is merely a concept designed to promote a set of values</t>
+  </si>
+  <si>
+    <t>god' is not just a concept designed to promote a set of values</t>
+  </si>
+  <si>
+    <t>People think that a benevolent God cannot exist because bad things happen...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">people think that a benevolent god can exist not because no bad things happen. </t>
+  </si>
+  <si>
+    <t>If there is a god, its the sun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if there is a god, it's not the sun. </t>
+  </si>
+  <si>
+    <t>God is a concept dreamed up by optimistic people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">god is not a concept dreamed up by optimistic people. </t>
+  </si>
+  <si>
+    <t>Animal testing should be banned.</t>
+  </si>
+  <si>
+    <t>Animal researchers treat animals humanely, both for the animals' sake and to ensure reliable test results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> human researchers treat humans humanely, neither for the humans' disadvantage and to ensure reliable conclusion results. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animals are treated well during animal testing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> humans aren't treated well during human testing.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research animals are well treated </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> research humans aren't well treated </t>
+  </si>
+  <si>
+    <t>Animals don’t have human rights</t>
+  </si>
+  <si>
+    <t>humans have animal rights</t>
+  </si>
+  <si>
+    <t>Testing is needed for really new drugs</t>
+  </si>
+  <si>
+    <t>testing is not need for really new drugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We need to be able to test drugs on animals.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we have to be able not to test drugs on animals.  </t>
+  </si>
+  <si>
+    <t>Animal research is only used when it’s needed</t>
+  </si>
+  <si>
+    <t>Animal research is not only used when it’s need</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We try to only use animal testing when it is needed.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we try to use animal testing no matter what.  </t>
+  </si>
+  <si>
+    <t>Animal research ensures greater safety for humans</t>
+  </si>
+  <si>
+    <t>Animal research ensures worse safety for humans</t>
+  </si>
+  <si>
+    <t>Animal testing has contributed to many life-saving cures and treatments.</t>
+  </si>
+  <si>
+    <t>Animal testing has no contributed to many life-saving cures and treatments.</t>
+  </si>
+  <si>
+    <t>Animal research has played a vital role in a great many of the major medical advances of the last century</t>
+  </si>
+  <si>
+    <t>Animal research has played a small role in a great many of the major medical advances of the last century</t>
+  </si>
+  <si>
+    <t>Animals themselves benefit from the results of animal testing.</t>
+  </si>
+  <si>
+    <t>Animals themselves do not benefit from the results of animal testing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most animals that are used in scientific testing have better lives. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Few animals that are used in scientific testing have worse deaths.  </t>
+  </si>
+  <si>
+    <t>Religious traditions allow for human dominion over animals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> religious traditions disallow for human dominion over animals. </t>
+  </si>
+  <si>
+    <t>Animals often make better research subjects than human beings because of their shorter life cycles.</t>
+  </si>
+  <si>
+    <t>Animals seldom make better research subjects than human beings because of their shorter life cycles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animals are appropriate research subjects because they are similar to human beings in many ways. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animals are not appropriate research subjects because they are similar to human beings in many ways. </t>
+  </si>
+  <si>
+    <t>Some cosmetics and health care products must be tested on animals to ensure their safety.</t>
+  </si>
+  <si>
+    <t>Some cosmetics and health care products do not needed tested on animals to ensure their safety.</t>
+  </si>
+  <si>
+    <t>Instant Replay Should Be Used in Major League Baseball</t>
+  </si>
+  <si>
+    <t>Instant replay will take the human element out of baseball</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> instant replay will not take the human element out of baseball</t>
+  </si>
+  <si>
+    <t>Why even have an umpire if every play can be instantly replayed?</t>
+  </si>
+  <si>
+    <t>why not have an umpire if every work can be instantly replayed?</t>
+  </si>
+  <si>
+    <t>Instant replay will make long MLB games even longer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant replay will destroy short mlb games even longer. </t>
+  </si>
+  <si>
+    <t>Kill One to Save Many</t>
+  </si>
+  <si>
+    <t>We cannot make any judgments about whose life is valuable and whose is not</t>
+  </si>
+  <si>
+    <t>We can make some judgments about whose life is valuable and whose is not</t>
+  </si>
+  <si>
+    <t>Killing is worse than letting someone die</t>
+  </si>
+  <si>
+    <t>killing is better than letting someone dies</t>
+  </si>
+  <si>
+    <t>It is fine to kill one to save many</t>
+  </si>
+  <si>
+    <t>It is unacceptable to live in a world where killing is ever justified, no matter how many lives it may save.</t>
+  </si>
+  <si>
+    <t>it is unacceptable to live in a world where killing is never justified, no matter how many lives it may save.</t>
+  </si>
+  <si>
+    <t>The possibility for the universal recogonition that killing is wrong can be deduced by pure intuition.</t>
+  </si>
+  <si>
+    <t>The possibility for the universal recogonition that killing is right can be deduced by pure intuition.</t>
+  </si>
+  <si>
+    <t>Africa is really rising</t>
+  </si>
+  <si>
+    <t>Majority of states are still undemocratic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> majority of states aren't still undemocratic</t>
+  </si>
+  <si>
+    <t>Sanctions should be used to promote democracy</t>
+  </si>
+  <si>
+    <t>Sanctions do not harm the right people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanctions do harm the right people. </t>
+  </si>
+  <si>
+    <t>Those affected by climate change should get compensation</t>
+  </si>
+  <si>
+    <t>It is hard to apportion blame</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> it is not hard to apportion blame </t>
+  </si>
+  <si>
+    <t>It is a good idea to have a system of  participatory democracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participatory Democracy Facilitates the Misrepresentation of Issues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">participatory democracy does not facilitate the misrepresentation of issues </t>
+  </si>
+  <si>
+    <t>Transparency is necessary for security</t>
+  </si>
+  <si>
+    <t>Transparency can result in normalisation</t>
+  </si>
+  <si>
+    <t>transparency can result out normalisation</t>
+  </si>
+  <si>
+    <t>Animals should be kept in zoos</t>
+  </si>
+  <si>
+    <t>Animal research may be valuable, but it does not need to happen in the context of confinement and human entertainment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal research may be valuable, and it have to happen in the context of confinement and animal entertainment. </t>
+  </si>
+  <si>
+    <t>Wild Animals Are Not Domesticated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wild humans are domesticated</t>
+  </si>
+  <si>
+    <t>Europe should be federal</t>
+  </si>
+  <si>
+    <t>Existing contributive inequalities within the Union would be amplified by a formal federal system</t>
+  </si>
+  <si>
+    <t>existing contributive inequalities within the union wouldn't be amplified by a formal federal system</t>
+  </si>
+  <si>
+    <t>Formal federalism creates extra inequalities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formal federalism creates no extra inequalities. </t>
+  </si>
+  <si>
+    <t>Parents should have the right to do background checks on those looking after their children</t>
+  </si>
+  <si>
+    <t>Would be very hard to maintain</t>
+  </si>
+  <si>
+    <t>Would not be very hard to maintain</t>
+  </si>
+  <si>
+    <t>Privacy Online is Important</t>
+  </si>
+  <si>
+    <t>The internet is a public space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the internet is a private space. </t>
+  </si>
+  <si>
+    <t>Only Criminals benefit from internet Privacy</t>
+  </si>
+  <si>
+    <t>Not only criminals benefit from internet privacy</t>
+  </si>
+  <si>
+    <t>Internet privacy only helps criminals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internet privacy does not only help criminals. </t>
+  </si>
+  <si>
+    <t>Only wrong-doers benefit from internet privacy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not only wrong-doers benefit from internet privacy. </t>
+  </si>
+  <si>
+    <t>Online privacy only benefits those who commit crimes on the internet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">online privacy does not only benefits these who commit crimes off the internet. </t>
+  </si>
+  <si>
+    <t>Criminals will be the only group benefited by online privacy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> criminals will not be the only group benefited by online privacy. </t>
+  </si>
+  <si>
+    <t>Encourage fewer people to go to university</t>
+  </si>
+  <si>
+    <t>College graduates are more likely to have health insurance and retirement plans.</t>
+  </si>
+  <si>
+    <t>College graduates are less likely to have health insurance and retirement plans.</t>
+  </si>
+  <si>
+    <t>Those who graduate from college are more likely to have retirement plans and health insurance.</t>
+  </si>
+  <si>
+    <t>Those who graduate from college are less likely to have retirement plans and health insurance.</t>
+  </si>
+  <si>
+    <t>Graduating from college increases the likelihood of having health insurance and a retirement plan.</t>
+  </si>
+  <si>
+    <t>Graduating from college decreases the likelihood of having health insurance and a retirement plan.</t>
+  </si>
+  <si>
+    <t>Children are typically healthier and more studious when their parents have graduated college.</t>
+  </si>
+  <si>
+    <t>Children are not typically healthier and more studious when their parents have graduated college.</t>
+  </si>
+  <si>
+    <t>lab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>undermine_origin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>support_opposite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>support_origin</t>
-  </si>
-  <si>
-    <t>predict_origin</t>
-  </si>
-  <si>
-    <t>gold_origin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>undermine_opposite</t>
-  </si>
-  <si>
-    <t>support_opposite</t>
-  </si>
-  <si>
-    <t>predict_opposite</t>
-  </si>
-  <si>
-    <t>gold_opposite</t>
-  </si>
-  <si>
-    <t>oppose_sum</t>
-  </si>
-  <si>
-    <t>support_sum</t>
-  </si>
-  <si>
-    <t>final_label</t>
-  </si>
-  <si>
-    <t>School Day Should Be Extended</t>
-  </si>
-  <si>
-    <t>Not enough funding…</t>
-  </si>
-  <si>
-    <t>Enough funding…</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Raise The School Leaving Age To 18</t>
-  </si>
-  <si>
-    <t>Little is accomplished when education is forced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big is accomplished when education is forced. </t>
-  </si>
-  <si>
-    <t>Forced Education Achieves Little</t>
-  </si>
-  <si>
-    <t>Forced education achieves big</t>
-  </si>
-  <si>
-    <t>Not all skills are best learnt in a classroom environment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All skills are best learnt in a classroom environment. </t>
-  </si>
-  <si>
-    <t>Some skills are better learned outside the classroom.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None skills are worse learned inside the classroom. </t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Young people should have the choice to decide for themselves</t>
-  </si>
-  <si>
-    <t>Young people should not have the choice to decide for themselves</t>
-  </si>
-  <si>
-    <t>Young people should have the freedom to make their own choices.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Young people should not have the restraint to destroy their own choices. </t>
-  </si>
-  <si>
-    <t>Young people should be able to think for themselves and make their own decisions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Young people should not be unable to think for themselves and destroy their own decisions. </t>
-  </si>
-  <si>
-    <t>Not everyone is good at studying</t>
-  </si>
-  <si>
-    <t>Everyone is good at studying</t>
-  </si>
-  <si>
-    <t>Make all museums free of charge</t>
-  </si>
-  <si>
-    <t>State funding should be used elsewhere</t>
-  </si>
-  <si>
-    <t>State funding shouldn't be used elsewhere</t>
-  </si>
-  <si>
-    <t>Chess must be at the Olympics</t>
-  </si>
-  <si>
-    <t>Opening up the Olympics for borderline sports is bad in itself</t>
-  </si>
-  <si>
-    <t>Opening up the olympics for borderline sports is good in itself</t>
-  </si>
-  <si>
-    <t>Olympic sports are suppose to be physical</t>
-  </si>
-  <si>
-    <t>Olympic sports aren't supposed to be physical</t>
-  </si>
-  <si>
-    <t>‘The Spear’ should have remained on public display.</t>
-  </si>
-  <si>
-    <t>Public Decency</t>
-  </si>
-  <si>
-    <t>No public decency</t>
-  </si>
-  <si>
-    <t>Federal States are better than unitary nations</t>
-  </si>
-  <si>
-    <t>Losers abound in federal states.</t>
-  </si>
-  <si>
-    <t>Losers not abound in federal states.</t>
-  </si>
-  <si>
-    <t>Federal governments often extend their powers and usurp local authority, especially if one or more federal units are disproportionately powerful.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal governments not often extend thier powers and usurp local authority, especially if two or less private units aren't disproportionately powerful. </t>
-  </si>
-  <si>
-    <t>Positive Discrimination Towards Women in Society Is Justified</t>
-  </si>
-  <si>
-    <t>Positive discrimination towards women should be allowed</t>
-  </si>
-  <si>
-    <t>Positive discrimination towards women should not be allowed</t>
-  </si>
-  <si>
-    <t>It is Men, Not Women, who are Disadvantaged in our Society</t>
-  </si>
-  <si>
-    <t>it is women, not men, who are disadvantaged in our society</t>
-  </si>
-  <si>
-    <t>Will Cause Resentment Between Men and Women</t>
-  </si>
-  <si>
-    <t>will not cause resentment among women and men</t>
-  </si>
-  <si>
-    <t>Positive discrimination for women is discrimination</t>
-  </si>
-  <si>
-    <t>Positive discrimination for women is not discrimination</t>
-  </si>
-  <si>
-    <t>Positive discrimination takes away voters' freedom of choice by limiting their choices to women</t>
-  </si>
-  <si>
-    <t>negative discrimination does not take away voters' freedom of choice by limiting their choices to women</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> College education is worth it</t>
-  </si>
-  <si>
-    <t>Many people succeed without college degrees.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No one succeeds without elementary school degrees. </t>
-  </si>
-  <si>
-    <t>Many college graduates are employed in jobs that do not require college degrees.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no elementary school graduates are employed in jobs that do not require elementary school degrees. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">More and more college educated people are accepting jobs for which they do not need a college education. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> less and less elementary school educated people aren't accepting jobs for which he do not have a elementary school education.  </t>
-  </si>
-  <si>
-    <t>Too many students earning degrees has diluted the value of a bachelor's degree.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Too less students earning degrees has not diluted the value of a bachelor's degree. </t>
-  </si>
-  <si>
-    <t>The value of a bachelor's degree has lessened.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the value of a bachelor's degree has not lessened. </t>
-  </si>
-  <si>
-    <t>A bachelor's degree is considered standard now.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> a bachelor's degree is not considered standard eventually. </t>
-  </si>
-  <si>
-    <t>Many recent college graduates are un- or underemployed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> none recent elementary school graduates are un- or underemployed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In recent times, there are significant numbers of unemployed and underemployed college graduates. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">in recent moments, there aren't significant numbers of unemployed and underemployed elementary school graduates.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Among those who are unemployed and underemployed, there are many college graduates. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Among these who are unemployed and underemployed, there aren't many elementary school graduates.  </t>
-  </si>
-  <si>
-    <t>Learning a trade profession is a better option than college for many young adults.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> learning a trade profession is a worse option than elementary school for many older adults. </t>
-  </si>
-  <si>
-    <t>Young adults should consider learning a trade instead of going to college.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Young adults shouldn't consider learning a trade instead of going to college. </t>
-  </si>
-  <si>
-    <t>Socialism is Dead</t>
-  </si>
-  <si>
-    <t>Socialism has changed historically to meet the challenges of the moment and is addressing those of the 21st century in new ways</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> socialism has not changed historically to meet the challenges of the moment and is addressing these of the 32st century in old ways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socialism can be molded to fit the needs of the moment. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">socialism can be molded to fit the wants of the moment.  </t>
-  </si>
-  <si>
-    <t>Socialism is a an ever changing set of principles that can be applied in new ways to meet the challenges of a changing world.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> socialism is a never changing set of principles that can be applied out old ways to meet the challenges of a changing galaxy. </t>
-  </si>
-  <si>
-    <t>socialism have changed and adapted to meet the upcoming challenges of the 21st century</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> socialism has not changed and adapted to meet the upcoming challenges of the 32st century</t>
-  </si>
-  <si>
-    <t>Socialism outranks capitalism in security.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">socialism does not outrank communism in security. </t>
-  </si>
-  <si>
-    <t>College football should replace the bowl championship series (BCS)</t>
-  </si>
-  <si>
-    <t>The BCS rankings are designed to favor consistency over the course of the entire season.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the BCS rankings aren't designed to favor consistency over the course of the entire season. </t>
-  </si>
-  <si>
-    <t>Pensions should be privatised</t>
-  </si>
-  <si>
-    <t>Historical evidence has shown that privatisation has been unsuccessful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> historical disproof has hidden that privatisation has not been unsuccessful</t>
-  </si>
-  <si>
-    <t>You have nothing to worry about surveillance if you have done nothing wrong</t>
-  </si>
-  <si>
-    <t>Lack of trust</t>
-  </si>
-  <si>
-    <t>lack of distrust</t>
-  </si>
-  <si>
-    <t>There is no trust</t>
-  </si>
-  <si>
-    <t>there is trust</t>
-  </si>
-  <si>
-    <t>Trust is missing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trust is not missing. </t>
-  </si>
-  <si>
-    <t>The use of meta data causes unintentional harm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the break of meta data causes unintentional harm</t>
-  </si>
-  <si>
-    <t>Abuse of information and power by intelligence agencies</t>
-  </si>
-  <si>
-    <t>No abuse of information and power by intelligence agencies</t>
-  </si>
-  <si>
-    <t>Agencies use surveillance to abuse their power.</t>
-  </si>
-  <si>
-    <t>Agencies do not use surveillance to abuse their power.</t>
-  </si>
-  <si>
-    <t>Power trips can be had by agencies.</t>
-  </si>
-  <si>
-    <t>Power trips can be good by agencies.</t>
-  </si>
-  <si>
-    <t>Loss of Privacy</t>
-  </si>
-  <si>
-    <t>keep of privacy</t>
-  </si>
-  <si>
-    <t>The use of animals as objects of sport and entertainment should be banned.</t>
-  </si>
-  <si>
-    <t>Fighting bulls have a better quality of life than meat-producing bulls</t>
-  </si>
-  <si>
-    <t>fighting bulls does not have a better quality of life than meat-producing bulls</t>
-  </si>
-  <si>
-    <t>In Parliamentary Democracies, A Change Of Prime Minister Should Automatically Trigger A General Election.</t>
-  </si>
-  <si>
-    <t>The concept overestimates the role of the Prime Minister</t>
-  </si>
-  <si>
-    <t>the concept underestimates the role of the prime minister</t>
-  </si>
-  <si>
-    <t>We must support the use of truth and reconciliation commissions</t>
-  </si>
-  <si>
-    <t>Reconciliation can be used to conceal political corruption and patrimony</t>
-  </si>
-  <si>
-    <t>reconciliation can not be used to conceal political corruption and patrimony</t>
-  </si>
-  <si>
-    <t>reconciliation can be used for political corruption</t>
-  </si>
-  <si>
-    <t>reconciliation can not be used for political corruption</t>
-  </si>
-  <si>
-    <t>reconciliation can help to conceal corruption</t>
-  </si>
-  <si>
-    <t>reconciliation can not help to conceal corruption</t>
-  </si>
-  <si>
-    <t>There is a good case for stating that there is a God</t>
-  </si>
-  <si>
-    <t>'God' is merely a concept designed to promote a set of values</t>
-  </si>
-  <si>
-    <t>god' is not just a concept designed to promote a set of values</t>
-  </si>
-  <si>
-    <t>People think that a benevolent God cannot exist because bad things happen...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">people think that a benevolent god can exist not because no bad things happen. </t>
-  </si>
-  <si>
-    <t>If there is a god, its the sun.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> if there is a god, it's not the sun. </t>
-  </si>
-  <si>
-    <t>God is a concept dreamed up by optimistic people.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">god is not a concept dreamed up by optimistic people. </t>
-  </si>
-  <si>
-    <t>Animal testing should be banned.</t>
-  </si>
-  <si>
-    <t>Animal researchers treat animals humanely, both for the animals' sake and to ensure reliable test results.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> human researchers treat humans humanely, neither for the humans' disadvantage and to ensure reliable conclusion results. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animals are treated well during animal testing. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> humans aren't treated well during human testing.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research animals are well treated </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> research humans aren't well treated </t>
-  </si>
-  <si>
-    <t>Animals don’t have human rights</t>
-  </si>
-  <si>
-    <t>humans have animal rights</t>
-  </si>
-  <si>
-    <t>Testing is needed for really new drugs</t>
-  </si>
-  <si>
-    <t>testing is not need for really new drugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We need to be able to test drugs on animals.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">we have to be able not to test drugs on animals.  </t>
-  </si>
-  <si>
-    <t>Animal research is only used when it’s needed</t>
-  </si>
-  <si>
-    <t>Animal research is not only used when it’s need</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We try to only use animal testing when it is needed.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">we try to use animal testing no matter what.  </t>
-  </si>
-  <si>
-    <t>Animal research ensures greater safety for humans</t>
-  </si>
-  <si>
-    <t>Animal research ensures worse safety for humans</t>
-  </si>
-  <si>
-    <t>Animal testing has contributed to many life-saving cures and treatments.</t>
-  </si>
-  <si>
-    <t>Animal testing has no contributed to many life-saving cures and treatments.</t>
-  </si>
-  <si>
-    <t>Animal research has played a vital role in a great many of the major medical advances of the last century</t>
-  </si>
-  <si>
-    <t>Animal research has played a small role in a great many of the major medical advances of the last century</t>
-  </si>
-  <si>
-    <t>Animals themselves benefit from the results of animal testing.</t>
-  </si>
-  <si>
-    <t>Animals themselves do not benefit from the results of animal testing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most animals that are used in scientific testing have better lives. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Few animals that are used in scientific testing have worse deaths.  </t>
-  </si>
-  <si>
-    <t>Religious traditions allow for human dominion over animals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> religious traditions disallow for human dominion over animals. </t>
-  </si>
-  <si>
-    <t>Animals often make better research subjects than human beings because of their shorter life cycles.</t>
-  </si>
-  <si>
-    <t>Animals seldom make better research subjects than human beings because of their shorter life cycles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animals are appropriate research subjects because they are similar to human beings in many ways. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animals are not appropriate research subjects because they are similar to human beings in many ways. </t>
-  </si>
-  <si>
-    <t>Some cosmetics and health care products must be tested on animals to ensure their safety.</t>
-  </si>
-  <si>
-    <t>Some cosmetics and health care products do not needed tested on animals to ensure their safety.</t>
-  </si>
-  <si>
-    <t>Instant Replay Should Be Used in Major League Baseball</t>
-  </si>
-  <si>
-    <t>Instant replay will take the human element out of baseball</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> instant replay will not take the human element out of baseball</t>
-  </si>
-  <si>
-    <t>Why even have an umpire if every play can be instantly replayed?</t>
-  </si>
-  <si>
-    <t>why not have an umpire if every work can be instantly replayed?</t>
-  </si>
-  <si>
-    <t>Instant replay will make long MLB games even longer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant replay will destroy short mlb games even longer. </t>
-  </si>
-  <si>
-    <t>Kill One to Save Many</t>
-  </si>
-  <si>
-    <t>We cannot make any judgments about whose life is valuable and whose is not</t>
-  </si>
-  <si>
-    <t>We can make some judgments about whose life is valuable and whose is not</t>
-  </si>
-  <si>
-    <t>Killing is worse than letting someone die</t>
-  </si>
-  <si>
-    <t>killing is better than letting someone dies</t>
-  </si>
-  <si>
-    <t>It is fine to kill one to save many</t>
-  </si>
-  <si>
-    <t>It is unacceptable to live in a world where killing is ever justified, no matter how many lives it may save.</t>
-  </si>
-  <si>
-    <t>it is unacceptable to live in a world where killing is never justified, no matter how many lives it may save.</t>
-  </si>
-  <si>
-    <t>The possibility for the universal recogonition that killing is wrong can be deduced by pure intuition.</t>
-  </si>
-  <si>
-    <t>The possibility for the universal recogonition that killing is right can be deduced by pure intuition.</t>
-  </si>
-  <si>
-    <t>Africa is really rising</t>
-  </si>
-  <si>
-    <t>Majority of states are still undemocratic</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> majority of states aren't still undemocratic</t>
-  </si>
-  <si>
-    <t>Sanctions should be used to promote democracy</t>
-  </si>
-  <si>
-    <t>Sanctions do not harm the right people.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanctions do harm the right people. </t>
-  </si>
-  <si>
-    <t>Those affected by climate change should get compensation</t>
-  </si>
-  <si>
-    <t>It is hard to apportion blame</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it is not hard to apportion blame </t>
-  </si>
-  <si>
-    <t>It is a good idea to have a system of  participatory democracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participatory Democracy Facilitates the Misrepresentation of Issues </t>
-  </si>
-  <si>
-    <t xml:space="preserve">participatory democracy does not facilitate the misrepresentation of issues </t>
-  </si>
-  <si>
-    <t>Transparency is necessary for security</t>
-  </si>
-  <si>
-    <t>Transparency can result in normalisation</t>
-  </si>
-  <si>
-    <t>transparency can result out normalisation</t>
-  </si>
-  <si>
-    <t>Animals should be kept in zoos</t>
-  </si>
-  <si>
-    <t>Animal research may be valuable, but it does not need to happen in the context of confinement and human entertainment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animal research may be valuable, and it have to happen in the context of confinement and animal entertainment. </t>
-  </si>
-  <si>
-    <t>Wild Animals Are Not Domesticated</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wild humans are domesticated</t>
-  </si>
-  <si>
-    <t>Europe should be federal</t>
-  </si>
-  <si>
-    <t>Existing contributive inequalities within the Union would be amplified by a formal federal system</t>
-  </si>
-  <si>
-    <t>existing contributive inequalities within the union wouldn't be amplified by a formal federal system</t>
-  </si>
-  <si>
-    <t>Formal federalism creates extra inequalities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formal federalism creates no extra inequalities. </t>
-  </si>
-  <si>
-    <t>Parents should have the right to do background checks on those looking after their children</t>
-  </si>
-  <si>
-    <t>Would be very hard to maintain</t>
-  </si>
-  <si>
-    <t>Would not be very hard to maintain</t>
-  </si>
-  <si>
-    <t>Privacy Online is Important</t>
-  </si>
-  <si>
-    <t>The internet is a public space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the internet is a private space. </t>
-  </si>
-  <si>
-    <t>Only Criminals benefit from internet Privacy</t>
-  </si>
-  <si>
-    <t>Not only criminals benefit from internet privacy</t>
-  </si>
-  <si>
-    <t>Internet privacy only helps criminals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">internet privacy does not only help criminals. </t>
-  </si>
-  <si>
-    <t>Only wrong-doers benefit from internet privacy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not only wrong-doers benefit from internet privacy. </t>
-  </si>
-  <si>
-    <t>Online privacy only benefits those who commit crimes on the internet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">online privacy does not only benefits these who commit crimes off the internet. </t>
-  </si>
-  <si>
-    <t>Criminals will be the only group benefited by online privacy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> criminals will not be the only group benefited by online privacy. </t>
-  </si>
-  <si>
-    <t>Encourage fewer people to go to university</t>
-  </si>
-  <si>
-    <t>College graduates are more likely to have health insurance and retirement plans.</t>
-  </si>
-  <si>
-    <t>College graduates are less likely to have health insurance and retirement plans.</t>
-  </si>
-  <si>
-    <t>Those who graduate from college are more likely to have retirement plans and health insurance.</t>
-  </si>
-  <si>
-    <t>Those who graduate from college are less likely to have retirement plans and health insurance.</t>
-  </si>
-  <si>
-    <t>Graduating from college increases the likelihood of having health insurance and a retirement plan.</t>
-  </si>
-  <si>
-    <t>Graduating from college decreases the likelihood of having health insurance and a retirement plan.</t>
-  </si>
-  <si>
-    <t>Children are typically healthier and more studious when their parents have graduated college.</t>
-  </si>
-  <si>
-    <t>Children are not typically healthier and more studious when their parents have graduated college.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,6 +808,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -791,7 +824,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -814,13 +847,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1125,28 +1178,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O100"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.35" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="87" customWidth="1"/>
-    <col min="3" max="3" width="107.375" customWidth="1"/>
-    <col min="4" max="4" width="95.125" customWidth="1"/>
-    <col min="5" max="5" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.33203125" customWidth="1"/>
+    <col min="4" max="4" width="95.109375" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,52 +1210,61 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
       <c r="E2">
         <v>-0.93639959999999989</v>
@@ -1234,21 +1297,33 @@
         <v>-0.32693200000000022</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P2">
+        <f>E2-I2</f>
+        <v>0.47756900000000013</v>
+      </c>
+      <c r="Q2">
+        <f>F2-J2</f>
+        <v>8.995910000000007E-2</v>
+      </c>
+      <c r="R2">
+        <f xml:space="preserve"> IF(P2&gt;Q2,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>-1.8032172</v>
@@ -1281,21 +1356,33 @@
         <v>-0.90004830000000036</v>
       </c>
       <c r="O3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="0">E3-I3</f>
+        <v>1.5083978000000002</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="1">F3-J3</f>
+        <v>-0.50407130000000011</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="2" xml:space="preserve"> IF(P3&gt;Q3,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>-0.77033809999999991</v>
@@ -1328,21 +1415,33 @@
         <v>-1.6975066999999999</v>
       </c>
       <c r="O4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>1.8434173999999999</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>-1.1679048999999999</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>-1.5698818999999999</v>
@@ -1375,21 +1474,33 @@
         <v>-0.20122010000000051</v>
       </c>
       <c r="O5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0.68084619999999996</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0.39977949999999995</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>-0.91301184999999996</v>
@@ -1422,21 +1533,33 @@
         <v>2.7885016</v>
       </c>
       <c r="O6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>-2.5696652499999999</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>3.0629531000000001</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>-1.5782008000000001</v>
@@ -1469,21 +1592,33 @@
         <v>4.3068795</v>
       </c>
       <c r="O7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>-3.8139281</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>4.3016429</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>-1.9647688999999999</v>
@@ -1516,21 +1651,33 @@
         <v>4.7184941</v>
       </c>
       <c r="O8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>-4.0923699999999998</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>4.7439929999999997</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>-1.9910889000000001</v>
@@ -1563,21 +1710,33 @@
         <v>4.7159256999999997</v>
       </c>
       <c r="O9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>-4.0745019999999998</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>4.8724494000000007</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>-2.0078673</v>
@@ -1610,21 +1769,33 @@
         <v>-0.42765130000000001</v>
       </c>
       <c r="O10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>1.079361</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>8.9421399999999984E-2</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>-1.9711173</v>
@@ -1657,21 +1828,33 @@
         <v>2.5570799559999999</v>
       </c>
       <c r="O11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>-1.9143404559999999</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>2.6939661950000002</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>-0.26848280000000002</v>
@@ -1704,21 +1887,33 @@
         <v>-0.29518496999999988</v>
       </c>
       <c r="O12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0.22979679999999986</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0.147198158</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
       </c>
       <c r="E13">
         <v>-1.6009097000000001</v>
@@ -1751,21 +1946,33 @@
         <v>3.7710035999999998</v>
       </c>
       <c r="O13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>-3.2921227000000002</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>3.7884956000000001</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E14">
         <v>-0.79768074</v>
@@ -1798,21 +2005,33 @@
         <v>-0.8759228</v>
       </c>
       <c r="O14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>1.0302954600000001</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>-0.36694349999999998</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>-0.31801853000000002</v>
@@ -1845,21 +2064,33 @@
         <v>1.2619516900000001</v>
       </c>
       <c r="O15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>-1.2823321000000001</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>1.39503982</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
       </c>
       <c r="E16">
         <v>-0.51916670000000009</v>
@@ -1892,21 +2123,33 @@
         <v>0.46732873999999991</v>
       </c>
       <c r="O16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>-0.38123424000000006</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>0.57684069599999999</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <v>-0.59013080000000007</v>
@@ -1939,21 +2182,33 @@
         <v>-6.9999000000000589E-3</v>
       </c>
       <c r="O17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>-1.2826800000000027E-2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>0.14732689999999998</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
       </c>
       <c r="E18">
         <v>-0.69402766000000005</v>
@@ -1986,21 +2241,33 @@
         <v>2.2236486000000002</v>
       </c>
       <c r="O18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>-2.1425783599999999</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>2.3284105999999998</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>-0.85259259999999992</v>
@@ -2033,21 +2300,33 @@
         <v>-0.14129659999999999</v>
       </c>
       <c r="O19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>0.29382510000000006</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>-0.11284830000000001</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>-0.49575113999999998</v>
@@ -2080,21 +2359,33 @@
         <v>-1.6337538</v>
       </c>
       <c r="O20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>1.6626584600000003</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>-1.1484076999999999</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>-1.9823581E-2</v>
@@ -2127,21 +2418,33 @@
         <v>3.2853359999999998E-2</v>
       </c>
       <c r="O21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>-3.0880266999999999E-2</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>0.118067014</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E22">
         <v>-0.97233367000000004</v>
@@ -2174,21 +2477,33 @@
         <v>1.2318100700000001</v>
       </c>
       <c r="O22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>-1.01732774</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>1.3044657860000002</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
         <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
       </c>
       <c r="E23">
         <v>-1.4495176000000001</v>
@@ -2221,21 +2536,33 @@
         <v>3.2946965000000001</v>
       </c>
       <c r="O23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>-2.7931346000000001</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>3.4277946000000004</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E24">
         <v>-0.33089956999999998</v>
@@ -2268,21 +2595,33 @@
         <v>0.80553375999999999</v>
       </c>
       <c r="O24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>-0.79489222999999998</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>0.8588088599999999</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E25">
         <v>-1.4367527</v>
@@ -2315,21 +2654,33 @@
         <v>2.3023207000000001</v>
       </c>
       <c r="O25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>-1.8324198</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>2.3782881700000003</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E26">
         <v>-1.4437978</v>
@@ -2362,21 +2713,33 @@
         <v>1.9911786579999999</v>
       </c>
       <c r="O26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>-1.501131158</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>2.0599149799999998</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E27">
         <v>-1.4844607000000001</v>
@@ -2409,21 +2772,33 @@
         <v>3.4058975999999999</v>
       </c>
       <c r="O27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>-2.9617072000000002</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>3.5102111000000003</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E28">
         <v>-0.31137419999999999</v>
@@ -2456,21 +2831,33 @@
         <v>-1.2406931299999999</v>
       </c>
       <c r="O28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>1.2267172000000002</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>-1.0077590300000001</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E29">
         <v>-0.74849200000000005</v>
@@ -2503,21 +2890,33 @@
         <v>0.56055520000000003</v>
       </c>
       <c r="O29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>-0.38732170000000005</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>0.73681483999999997</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E30">
         <v>-0.95219010000000004</v>
@@ -2550,21 +2949,33 @@
         <v>1.6781462599999999</v>
       </c>
       <c r="O30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>-1.48110556</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>1.75127926</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E31">
         <v>-0.45061770000000001</v>
@@ -2597,21 +3008,33 @@
         <v>3.0500755700000002</v>
       </c>
       <c r="O31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>-3.0113656</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>3.3133179699999999</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E32">
         <v>-0.31103259999999988</v>
@@ -2644,21 +3067,33 @@
         <v>1.5095357</v>
       </c>
       <c r="O32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>-1.4717708999999999</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>1.7009896</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E33">
         <v>-0.42307129999999998</v>
@@ -2691,21 +3126,33 @@
         <v>0.40218839000000001</v>
       </c>
       <c r="O33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>-0.35646488999999998</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>0.56051344400000003</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" t="s">
         <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" t="s">
-        <v>90</v>
       </c>
       <c r="E34">
         <v>-1.0586289</v>
@@ -2738,21 +3185,33 @@
         <v>0.80430174999999993</v>
       </c>
       <c r="O34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>-0.54436264999999995</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>1.0476399199999999</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E35">
         <v>-0.50847249999999999</v>
@@ -2785,21 +3244,33 @@
         <v>0.48010277000000001</v>
       </c>
       <c r="O35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>-0.42831277000000001</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>0.73207878999999998</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E36">
         <v>-0.77613280000000007</v>
@@ -2832,21 +3303,33 @@
         <v>1.1031432000000001</v>
       </c>
       <c r="O36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>-0.96279373000000001</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>1.2736810200000002</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E37">
         <v>-0.65219880000000008</v>
@@ -2879,21 +3362,33 @@
         <v>1.6272814600000001</v>
       </c>
       <c r="O37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>-1.5748576600000002</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>1.7052982999999999</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E38">
         <v>-1.2682765</v>
@@ -2926,21 +3421,33 @@
         <v>4.6934979999999999</v>
       </c>
       <c r="O38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>-4.3646763000000002</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>4.6921028000000007</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E39">
         <v>-1.0129348</v>
@@ -2973,21 +3480,33 @@
         <v>3.2216143000000002</v>
       </c>
       <c r="O39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>-3.0236784000000001</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>3.2289984</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E40">
         <v>-0.66021043000000001</v>
@@ -3020,21 +3539,33 @@
         <v>-0.37568489999999999</v>
       </c>
       <c r="O40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>0.41327497000000002</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>-1.9694939999999939E-2</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
         <v>103</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" t="s">
-        <v>107</v>
       </c>
       <c r="E41">
         <v>-5.7867870000000002E-2</v>
@@ -3067,21 +3598,33 @@
         <v>-0.92175529999999994</v>
       </c>
       <c r="O41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>0.93045086999999993</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>-0.29640485999999999</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E42">
         <v>-0.67920314999999998</v>
@@ -3114,21 +3657,33 @@
         <v>0.44759100000000002</v>
       </c>
       <c r="O42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>-0.40160065</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>0.81285101000000004</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E43">
         <v>-0.61010010000000003</v>
@@ -3161,21 +3716,33 @@
         <v>-0.8936187000000001</v>
       </c>
       <c r="O43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>0.96324939999999992</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>-0.4199700999999999</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E44">
         <v>-0.74924330000000006</v>
@@ -3208,21 +3775,33 @@
         <v>-0.71762462999999999</v>
       </c>
       <c r="O44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>0.77615849999999997</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>-0.40666052999999991</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E45">
         <v>-0.89480110000000002</v>
@@ -3255,21 +3834,33 @@
         <v>0.73013220000000012</v>
       </c>
       <c r="O45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>-0.58207490000000006</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>0.92645567000000006</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E46">
         <v>-0.94953580000000004</v>
@@ -3302,21 +3893,33 @@
         <v>-0.34448670000000031</v>
       </c>
       <c r="O46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>0.50264669999999989</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>0.27335260000000006</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E47">
         <v>-0.66557240000000006</v>
@@ -3349,21 +3952,33 @@
         <v>1.53235524</v>
       </c>
       <c r="O47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>-1.4784786000000001</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="1"/>
+        <v>1.9478570399999999</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E48">
         <v>-0.40714739999999999</v>
@@ -3396,21 +4011,33 @@
         <v>-3.8182560000000032E-2</v>
       </c>
       <c r="O48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>6.3352120000000012E-2</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="1"/>
+        <v>5.2116759999999984E-2</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E49">
         <v>-0.59368103999999999</v>
@@ -3443,21 +4070,33 @@
         <v>3.6317564999999998</v>
       </c>
       <c r="O49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>-3.5883585399999998</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="1"/>
+        <v>3.6954262</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E50">
         <v>-1.9042861</v>
@@ -3490,21 +4129,33 @@
         <v>2.8684816299999998</v>
       </c>
       <c r="O50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>-2.18893643</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="1"/>
+        <v>2.9132405700000001</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" t="s">
         <v>126</v>
-      </c>
-      <c r="C51" t="s">
-        <v>129</v>
-      </c>
-      <c r="D51" t="s">
-        <v>130</v>
       </c>
       <c r="E51">
         <v>-1.6158485</v>
@@ -3537,21 +4188,33 @@
         <v>1.98183442</v>
       </c>
       <c r="O51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>-1.4551935199999999</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>2.0773326600000002</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E52">
         <v>-2.0466492000000001</v>
@@ -3584,21 +4247,33 @@
         <v>3.5363460500000001</v>
       </c>
       <c r="O52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>-2.8396604500000002</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="1"/>
+        <v>3.7017764</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E53">
         <v>-0.67954873999999998</v>
@@ -3631,21 +4306,33 @@
         <v>3.0887530999999999</v>
       </c>
       <c r="O53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>-2.9705746400000002</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="1"/>
+        <v>3.1857739</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" t="s">
         <v>133</v>
-      </c>
-      <c r="C54" t="s">
-        <v>136</v>
-      </c>
-      <c r="D54" t="s">
-        <v>137</v>
       </c>
       <c r="E54">
         <v>-0.56592810000000005</v>
@@ -3678,21 +4365,33 @@
         <v>-1.0243868</v>
       </c>
       <c r="O54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>1.0587129</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="1"/>
+        <v>-0.74653220000000009</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E55">
         <v>-0.65411569999999997</v>
@@ -3725,21 +4424,33 @@
         <v>2.3689398499999998</v>
       </c>
       <c r="O55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>-2.2708683000000001</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="1"/>
+        <v>2.46629275</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E56">
         <v>-1.359326</v>
@@ -3772,21 +4483,33 @@
         <v>4.3099863000000003</v>
       </c>
       <c r="O56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>-3.8667375000000002</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="1"/>
+        <v>4.4112252000000005</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E57">
         <v>-0.353709</v>
@@ -3819,21 +4542,33 @@
         <v>-0.37702303999999998</v>
       </c>
       <c r="O57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>0.40377424000000001</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="1"/>
+        <v>-0.14461170000000001</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" t="s">
         <v>142</v>
-      </c>
-      <c r="C58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" t="s">
-        <v>146</v>
       </c>
       <c r="E58">
         <v>-0.81416509999999997</v>
@@ -3866,21 +4601,33 @@
         <v>-0.33446534999999988</v>
       </c>
       <c r="O58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>0.51403610000000011</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="1"/>
+        <v>4.5509819999999923E-2</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E59">
         <v>-1.0994539000000001</v>
@@ -3913,21 +4660,33 @@
         <v>-0.34764669999999992</v>
       </c>
       <c r="O59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>0.61141729999999983</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="1"/>
+        <v>0.12214659999999999</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E60">
         <v>-9.2059396000000002E-2</v>
@@ -3960,21 +4719,33 @@
         <v>-1.0790359599999999</v>
       </c>
       <c r="O60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>1.0562205039999999</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="1"/>
+        <v>-0.61616465999999992</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E61">
         <v>-1.6957295999999999</v>
@@ -4007,21 +4778,33 @@
         <v>0.35361189999999998</v>
       </c>
       <c r="O61" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>0.16669670000000014</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="1"/>
+        <v>0.8050854999999999</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D62" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E62">
         <v>-1.2756041</v>
@@ -4054,21 +4837,33 @@
         <v>2.0525400199999999</v>
       </c>
       <c r="O62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>-1.68719262</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="1"/>
+        <v>2.4048837999999999</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E63">
         <v>-0.40462493999999999</v>
@@ -4101,21 +4896,33 @@
         <v>-0.94889950000000001</v>
       </c>
       <c r="O63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>1.01969726</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="1"/>
+        <v>-0.42213873000000002</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D64" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E64">
         <v>-0.94298947</v>
@@ -4148,21 +4955,33 @@
         <v>1.7424873000000001</v>
       </c>
       <c r="O64" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>-1.51271347</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="1"/>
+        <v>2.0214981999999999</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E65">
         <v>-0.41117013000000002</v>
@@ -4195,21 +5014,33 @@
         <v>-1.28213848</v>
       </c>
       <c r="O65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>1.29235137</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="1"/>
+        <v>-0.76943908000000016</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D66" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E66">
         <v>-0.44928149999999989</v>
@@ -4242,21 +5073,33 @@
         <v>-0.32125224000000002</v>
       </c>
       <c r="O66" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>0.43048824000000008</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="1"/>
+        <v>-1.6412630000000039E-2</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D67" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E67">
         <v>-0.53668534999999995</v>
@@ -4289,21 +5132,33 @@
         <v>1.9482292999999999</v>
       </c>
       <c r="O67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P100" si="3">E67-I67</f>
+        <v>-1.8415211499999999</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q100" si="4">F67-J67</f>
+        <v>2.2917154000000002</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R100" si="5" xml:space="preserve"> IF(P67&gt;Q67,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D68" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E68">
         <v>-0.75111019999999995</v>
@@ -4336,21 +5191,33 @@
         <v>-0.16130219999999981</v>
       </c>
       <c r="O68" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="3"/>
+        <v>0.31156600000000012</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="4"/>
+        <v>8.2195199999999913E-2</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D69" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E69">
         <v>-0.75120633999999997</v>
@@ -4383,21 +5250,33 @@
         <v>-1.7267771999999999</v>
       </c>
       <c r="O69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="3"/>
+        <v>1.8864970599999999</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="4"/>
+        <v>-1.2369224000000001</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D70" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E70">
         <v>-0.68928940000000005</v>
@@ -4430,21 +5309,33 @@
         <v>-1.27176344</v>
       </c>
       <c r="O70" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="3"/>
+        <v>1.3551070000000001</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="4"/>
+        <v>-0.82545533999999987</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D71" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E71">
         <v>-0.60531889999999999</v>
@@ -4477,21 +5368,33 @@
         <v>-1.3451038</v>
       </c>
       <c r="O71" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="3"/>
+        <v>1.4064958999999999</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="4"/>
+        <v>-0.90593599999999996</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D72" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E72">
         <v>-0.15387449</v>
@@ -4524,21 +5427,33 @@
         <v>-1.44103107</v>
       </c>
       <c r="O72" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="3"/>
+        <v>1.49552971</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="4"/>
+        <v>-1.0686910700000001</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D73" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E73">
         <v>-0.27020082000000001</v>
@@ -4571,21 +5486,33 @@
         <v>-0.78191259999999985</v>
       </c>
       <c r="O73" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="3"/>
+        <v>0.77350537999999991</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="4"/>
+        <v>-0.46733530000000006</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D74" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E74">
         <v>-0.29752526000000001</v>
@@ -4618,21 +5545,33 @@
         <v>0.50877435999999998</v>
       </c>
       <c r="O74" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="3"/>
+        <v>-0.49577766000000001</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="4"/>
+        <v>0.66565874000000003</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" t="s">
         <v>177</v>
-      </c>
-      <c r="C75" t="s">
-        <v>180</v>
-      </c>
-      <c r="D75" t="s">
-        <v>181</v>
       </c>
       <c r="E75">
         <v>-0.88126650000000006</v>
@@ -4665,21 +5604,33 @@
         <v>1.76391184</v>
       </c>
       <c r="O75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="3"/>
+        <v>-1.6028723400000002</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="4"/>
+        <v>1.84087395</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C76" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D76" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E76">
         <v>-0.79900969999999993</v>
@@ -4712,21 +5663,33 @@
         <v>2.9707987</v>
       </c>
       <c r="O76" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="3"/>
+        <v>-2.8336144999999999</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="4"/>
+        <v>3.0399432000000002</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D77" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E77">
         <v>-6.6282510000000003E-2</v>
@@ -4759,21 +5722,33 @@
         <v>-2.0956994099999999</v>
       </c>
       <c r="O77" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="3"/>
+        <v>2.0645050899999999</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="4"/>
+        <v>-1.7448586100000001</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>180</v>
+      </c>
+      <c r="C78" t="s">
+        <v>183</v>
+      </c>
+      <c r="D78" t="s">
         <v>184</v>
-      </c>
-      <c r="C78" t="s">
-        <v>187</v>
-      </c>
-      <c r="D78" t="s">
-        <v>188</v>
       </c>
       <c r="E78">
         <v>-0.60957589999999995</v>
@@ -4806,21 +5781,33 @@
         <v>0.85259668999999993</v>
       </c>
       <c r="O78" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="3"/>
+        <v>-0.80466368999999993</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="4"/>
+        <v>1.0289872999999998</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C79" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D79" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E79">
         <v>-0.35454047</v>
@@ -4853,21 +5840,33 @@
         <v>0.55082449999999994</v>
       </c>
       <c r="O79" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="3"/>
+        <v>-0.53706227000000006</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="4"/>
+        <v>0.66959310000000016</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" t="s">
         <v>189</v>
-      </c>
-      <c r="C80" t="s">
-        <v>192</v>
-      </c>
-      <c r="D80" t="s">
-        <v>193</v>
       </c>
       <c r="E80">
         <v>-1.6839211000000001</v>
@@ -4900,21 +5899,33 @@
         <v>0.68191170000000034</v>
       </c>
       <c r="O80" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="3"/>
+        <v>-0.11501120000000009</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="4"/>
+        <v>0.95486990000000005</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C81" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D81" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E81">
         <v>-6.3229389999999996E-2</v>
@@ -4947,21 +5958,33 @@
         <v>0.42736636</v>
       </c>
       <c r="O81" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="3"/>
+        <v>-0.38374534999999999</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="4"/>
+        <v>0.76193699999999998</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C82" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D82" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E82">
         <v>-0.9032848</v>
@@ -4994,21 +6017,33 @@
         <v>4.4346475000000014</v>
       </c>
       <c r="O82" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="3"/>
+        <v>-4.2766833000000002</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="4"/>
+        <v>4.6636550000000003</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C83" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D83" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E83">
         <v>-0.89735490000000007</v>
@@ -5041,21 +6076,33 @@
         <v>3.7297049000000002</v>
       </c>
       <c r="O83" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="3"/>
+        <v>-3.4748972</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="4"/>
+        <v>3.7751945999999998</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C84" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D84" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E84">
         <v>2.5850244000000001E-2</v>
@@ -5088,21 +6135,33 @@
         <v>3.1802709440000001</v>
       </c>
       <c r="O84" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="3"/>
+        <v>-3.1016827560000002</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="4"/>
+        <v>3.3290073439999999</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C85" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D85" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E85">
         <v>-1.7745405000000001</v>
@@ -5135,21 +6194,33 @@
         <v>-0.90614250000000007</v>
       </c>
       <c r="O85" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="3"/>
+        <v>1.5345260000000001</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="4"/>
+        <v>-0.54384169999999976</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C86" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D86" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E86">
         <v>-0.54866475000000003</v>
@@ -5182,21 +6253,33 @@
         <v>0.54645436199999997</v>
       </c>
       <c r="O86" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="3"/>
+        <v>-0.56059041200000004</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="4"/>
+        <v>0.8229065499999999</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
+        <v>205</v>
+      </c>
+      <c r="C87" t="s">
+        <v>208</v>
+      </c>
+      <c r="D87" t="s">
         <v>209</v>
-      </c>
-      <c r="C87" t="s">
-        <v>212</v>
-      </c>
-      <c r="D87" t="s">
-        <v>213</v>
       </c>
       <c r="E87">
         <v>-0.70152159999999997</v>
@@ -5229,21 +6312,33 @@
         <v>4.9306300000000032E-2</v>
       </c>
       <c r="O87" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="3"/>
+        <v>7.8125900000000081E-2</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="4"/>
+        <v>0.45479142000000006</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C88" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D88" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E88">
         <v>-1.7069603</v>
@@ -5276,21 +6371,33 @@
         <v>3.5567875</v>
       </c>
       <c r="O88" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="3"/>
+        <v>-2.9941161999999997</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="4"/>
+        <v>3.5825069999999997</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
+        <v>210</v>
+      </c>
+      <c r="C89" t="s">
+        <v>213</v>
+      </c>
+      <c r="D89" t="s">
         <v>214</v>
-      </c>
-      <c r="C89" t="s">
-        <v>217</v>
-      </c>
-      <c r="D89" t="s">
-        <v>218</v>
       </c>
       <c r="E89">
         <v>-1.6475816000000001</v>
@@ -5323,21 +6430,33 @@
         <v>0.62028739999999982</v>
       </c>
       <c r="O89" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="3"/>
+        <v>-0.10193680000000005</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="4"/>
+        <v>0.64419649999999984</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C90" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D90" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E90">
         <v>-1.1461047</v>
@@ -5370,21 +6489,33 @@
         <v>4.2489257</v>
       </c>
       <c r="O90" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="3"/>
+        <v>-3.9469583999999998</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="4"/>
+        <v>4.3878208000000001</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C91" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D91" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E91">
         <v>-1.4363899</v>
@@ -5417,21 +6548,33 @@
         <v>2.0577323600000001</v>
       </c>
       <c r="O91" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="3"/>
+        <v>-1.6767740600000001</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="4"/>
+        <v>2.56010224</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
+        <v>218</v>
+      </c>
+      <c r="C92" t="s">
+        <v>221</v>
+      </c>
+      <c r="D92" t="s">
         <v>222</v>
-      </c>
-      <c r="C92" t="s">
-        <v>225</v>
-      </c>
-      <c r="D92" t="s">
-        <v>226</v>
       </c>
       <c r="E92">
         <v>-1.8142806</v>
@@ -5464,21 +6607,33 @@
         <v>2.0645400399999998</v>
       </c>
       <c r="O92" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="3"/>
+        <v>-1.51272264</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="4"/>
+        <v>2.3407346929999999</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C93" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D93" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E93">
         <v>-0.58838299999999999</v>
@@ -5511,21 +6666,33 @@
         <v>1.93529237</v>
       </c>
       <c r="O93" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="3"/>
+        <v>-1.8725521999999999</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="4"/>
+        <v>2.0225885699999999</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C94" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D94" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E94">
         <v>-0.87184525000000002</v>
@@ -5558,21 +6725,33 @@
         <v>-0.98256370000000004</v>
       </c>
       <c r="O94" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="3"/>
+        <v>1.2026333499999999</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="4"/>
+        <v>-0.48734310000000014</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C95" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D95" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E95">
         <v>-0.70749390000000001</v>
@@ -5605,21 +6784,33 @@
         <v>6.9663399999999598E-3</v>
       </c>
       <c r="O95" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="3"/>
+        <v>6.6981260000000042E-2</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="4"/>
+        <v>0.3066236</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C96" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D96" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E96">
         <v>-1.6058262999999999</v>
@@ -5652,21 +6843,33 @@
         <v>4.4381617999999996</v>
       </c>
       <c r="O96" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="3"/>
+        <v>-3.9503577999999999</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="4"/>
+        <v>4.4577527000000003</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C97" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D97" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E97">
         <v>-4.3378234000000002E-2</v>
@@ -5699,21 +6902,33 @@
         <v>-0.44837542000000002</v>
       </c>
       <c r="O97" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="3"/>
+        <v>0.54538826600000001</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="4"/>
+        <v>-0.29426493999999997</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C98" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" t="s">
         <v>235</v>
-      </c>
-      <c r="C98" t="s">
-        <v>238</v>
-      </c>
-      <c r="D98" t="s">
-        <v>239</v>
       </c>
       <c r="E98">
         <v>-0.52170943999999997</v>
@@ -5746,21 +6961,33 @@
         <v>-0.49703569999999991</v>
       </c>
       <c r="O98" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="3"/>
+        <v>0.5370287600000001</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="4"/>
+        <v>-0.25009994999999996</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C99" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D99" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E99">
         <v>-0.37882036000000002</v>
@@ -5793,21 +7020,33 @@
         <v>-1.23611497</v>
       </c>
       <c r="O99" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="3"/>
+        <v>1.2468058399999999</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="4"/>
+        <v>-0.91728456999999997</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C100" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D100" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E100">
         <v>-0.40922566999999999</v>
@@ -5840,13 +7079,31 @@
         <v>-0.43145689999999998</v>
       </c>
       <c r="O100" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="3"/>
+        <v>0.46663580000000004</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="4"/>
+        <v>-0.24646446</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O100" xr:uid="{1EA11A0E-0EDC-49EB-8E15-60EE80AE8A34}"/>
+  <autoFilter ref="A1:R100" xr:uid="{A0D76CA1-F37A-4551-AA85-1A2803BA32FE}">
+    <filterColumn colId="17">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>